--- a/첫번째실험.xlsx
+++ b/첫번째실험.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CM_Projects\Mechatronics23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wogur\OneDrive\바탕 화면\과제\2023-2\메카트로닉스\mecha\Mechatronics23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6202A0A9-A0B3-482E-B948-E49DB0C0F638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABFED47-40B4-455C-9962-5146330EA337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="15400" xr2:uid="{D47F3207-160A-4D2E-B903-2573D9A621C0}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{D47F3207-160A-4D2E-B903-2573D9A621C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,15 +430,15 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="18.4140625" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>100</v>
       </c>
@@ -465,7 +469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>100</v>
       </c>
@@ -478,8 +482,11 @@
       <c r="D3">
         <v>6560382</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>150</v>
       </c>
@@ -493,7 +500,7 @@
         <v>4104253</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>300</v>
       </c>
@@ -507,7 +514,7 @@
         <v>3513316</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>500</v>
       </c>
@@ -521,7 +528,7 @@
         <v>3374851</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>500</v>
       </c>
@@ -535,7 +542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>500</v>
       </c>
@@ -549,7 +556,7 @@
         <v>3112214</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>100</v>
       </c>
@@ -563,7 +570,7 @@
         <v>5412853</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>100</v>
       </c>
